--- a/modules_schedules/Y4_B2526_General_&_Special_Surgery_1_B1_schedule.xlsx
+++ b/modules_schedules/Y4_B2526_General_&_Special_Surgery_1_B1_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\modules_schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5392002F-6E53-4F8A-8AF5-11858D37A1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D55ECE-7CB1-41A1-BB99-D933C5786C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="580" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General_&amp;_Special_surgery_1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="102">
   <si>
     <t>Year</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>15/12/2025</t>
   </si>
   <si>
     <t>13</t>
@@ -717,9 +714,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G325"/>
+  <dimension ref="A1:G319"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -763,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -786,7 +783,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>12</v>
@@ -809,7 +806,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
@@ -832,7 +829,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
@@ -855,7 +852,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -878,7 +875,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>20</v>
@@ -901,7 +898,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
@@ -924,7 +921,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>24</v>
@@ -947,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>26</v>
@@ -970,7 +967,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>28</v>
@@ -993,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>30</v>
@@ -1009,600 +1006,600 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="E13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="E14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="E15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="E16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="9">
+      <c r="E17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="E18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="9">
+      <c r="E19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="E20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="9">
+      <c r="E21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="E22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="9">
+      <c r="E23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="E24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="9">
+      <c r="E25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="E26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="9">
+      <c r="E27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>8</v>
+      <c r="A28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="9">
+        <v>101</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>64</v>
+      <c r="A30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="5">
+        <v>101</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>64</v>
+      <c r="A31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="9">
+        <v>101</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>64</v>
+      <c r="A32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="5">
+        <v>101</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>64</v>
+      <c r="A33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="9">
+        <v>101</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>64</v>
+      <c r="A34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="5">
+        <v>101</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>64</v>
+      <c r="A35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="9">
+        <v>101</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>64</v>
+      <c r="A36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="5">
+        <v>101</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>64</v>
+      <c r="A37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="9">
+        <v>101</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>64</v>
+      <c r="A38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="5">
+        <v>101</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="9">
         <v>180</v>
       </c>
     </row>
@@ -1611,16 +1608,16 @@
         <v>7</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>11</v>
@@ -1634,16 +1631,16 @@
         <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>11</v>
@@ -1657,16 +1654,16 @@
         <v>7</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>11</v>
@@ -1680,16 +1677,16 @@
         <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>11</v>
@@ -1703,16 +1700,16 @@
         <v>7</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>11</v>
@@ -1726,16 +1723,16 @@
         <v>7</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>11</v>
@@ -1749,16 +1746,16 @@
         <v>7</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>11</v>
@@ -1772,16 +1769,16 @@
         <v>7</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>11</v>
@@ -1795,16 +1792,16 @@
         <v>7</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>11</v>
@@ -1818,16 +1815,16 @@
         <v>7</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>11</v>
@@ -1841,16 +1838,16 @@
         <v>7</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>11</v>
@@ -1864,16 +1861,16 @@
         <v>7</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>11</v>
@@ -1887,16 +1884,16 @@
         <v>7</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>11</v>
@@ -1910,16 +1907,16 @@
         <v>7</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>11</v>
@@ -1933,16 +1930,16 @@
         <v>7</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>11</v>
@@ -1959,13 +1956,13 @@
         <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>11</v>
@@ -1982,13 +1979,13 @@
         <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>11</v>
@@ -2002,16 +1999,16 @@
         <v>7</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>11</v>
@@ -2025,16 +2022,16 @@
         <v>7</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>11</v>
@@ -2048,16 +2045,16 @@
         <v>7</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>11</v>
@@ -2071,16 +2068,16 @@
         <v>7</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>11</v>
@@ -2094,16 +2091,16 @@
         <v>7</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>11</v>
@@ -2117,16 +2114,16 @@
         <v>7</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>11</v>
@@ -2140,16 +2137,16 @@
         <v>7</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>11</v>
@@ -2163,16 +2160,16 @@
         <v>7</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>11</v>
@@ -2186,619 +2183,619 @@
         <v>7</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="C80" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E88" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" s="6" t="s">
+      <c r="F88" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D65" s="6" t="s">
+      <c r="C89" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E89" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F65" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" s="2" t="s">
+      <c r="F89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="C90" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E90" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F66" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" s="5">
+      <c r="F90" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="9">
         <v>180</v>
       </c>
     </row>
@@ -2807,16 +2804,16 @@
         <v>7</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F91" s="8" t="s">
         <v>11</v>
@@ -2830,16 +2827,16 @@
         <v>7</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>11</v>
@@ -2853,16 +2850,16 @@
         <v>7</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F93" s="8" t="s">
         <v>11</v>
@@ -2876,16 +2873,16 @@
         <v>7</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>11</v>
@@ -2899,16 +2896,16 @@
         <v>7</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F95" s="8" t="s">
         <v>11</v>
@@ -2922,16 +2919,16 @@
         <v>7</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>11</v>
@@ -2945,16 +2942,16 @@
         <v>7</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F97" s="8" t="s">
         <v>11</v>
@@ -2968,16 +2965,16 @@
         <v>7</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>11</v>
@@ -2991,16 +2988,16 @@
         <v>7</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F99" s="8" t="s">
         <v>11</v>
@@ -3014,16 +3011,16 @@
         <v>7</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>11</v>
@@ -3037,16 +3034,16 @@
         <v>7</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F101" s="8" t="s">
         <v>11</v>
@@ -3060,16 +3057,16 @@
         <v>7</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>11</v>
@@ -3083,16 +3080,16 @@
         <v>7</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F103" s="8" t="s">
         <v>11</v>
@@ -3106,16 +3103,16 @@
         <v>7</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>11</v>
@@ -3129,16 +3126,16 @@
         <v>7</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F105" s="8" t="s">
         <v>11</v>
@@ -3155,13 +3152,13 @@
         <v>66</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>11</v>
@@ -3178,13 +3175,13 @@
         <v>66</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="F107" s="8" t="s">
         <v>11</v>
@@ -3201,13 +3198,13 @@
         <v>66</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>11</v>
@@ -3224,13 +3221,13 @@
         <v>66</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="F109" s="8" t="s">
         <v>11</v>
@@ -3244,16 +3241,16 @@
         <v>7</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>11</v>
@@ -3267,16 +3264,16 @@
         <v>7</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F111" s="8" t="s">
         <v>11</v>
@@ -3290,16 +3287,16 @@
         <v>7</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>11</v>
@@ -3313,16 +3310,16 @@
         <v>7</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F113" s="8" t="s">
         <v>11</v>
@@ -3336,16 +3333,16 @@
         <v>7</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>11</v>
@@ -3359,16 +3356,16 @@
         <v>7</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F115" s="8" t="s">
         <v>11</v>
@@ -3382,619 +3379,619 @@
         <v>7</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G121" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G123" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G126" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D116" s="2" t="s">
+      <c r="C132" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G132" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G135" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D138" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E138" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F116" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B117" s="6" t="s">
+      <c r="F138" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D117" s="6" t="s">
+      <c r="C139" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="E139" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F117" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B118" s="2" t="s">
+      <c r="F139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="C140" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D140" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E140" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F118" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B119" s="6" t="s">
+      <c r="F140" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G140" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D119" s="6" t="s">
+      <c r="C141" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E119" s="7" t="s">
+      <c r="E141" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F119" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B120" s="2" t="s">
+      <c r="F141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G141" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D120" s="2" t="s">
+      <c r="C142" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D142" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E142" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F120" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F129" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F131" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F133" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F135" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A137" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F137" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F139" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E141" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F141" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A142" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" s="5">
+      <c r="F142" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142" s="9">
         <v>180</v>
       </c>
     </row>
@@ -4003,16 +4000,16 @@
         <v>7</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F143" s="8" t="s">
         <v>11</v>
@@ -4026,16 +4023,16 @@
         <v>7</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>11</v>
@@ -4049,16 +4046,16 @@
         <v>7</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F145" s="8" t="s">
         <v>11</v>
@@ -4072,16 +4069,16 @@
         <v>7</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>11</v>
@@ -4095,16 +4092,16 @@
         <v>7</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F147" s="8" t="s">
         <v>11</v>
@@ -4118,16 +4115,16 @@
         <v>7</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>11</v>
@@ -4141,16 +4138,16 @@
         <v>7</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F149" s="8" t="s">
         <v>11</v>
@@ -4164,16 +4161,16 @@
         <v>7</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>11</v>
@@ -4187,16 +4184,16 @@
         <v>7</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F151" s="8" t="s">
         <v>11</v>
@@ -4210,16 +4207,16 @@
         <v>7</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>11</v>
@@ -4233,16 +4230,16 @@
         <v>7</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F153" s="8" t="s">
         <v>11</v>
@@ -4256,16 +4253,16 @@
         <v>7</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>11</v>
@@ -4279,16 +4276,16 @@
         <v>7</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F155" s="8" t="s">
         <v>11</v>
@@ -4302,16 +4299,16 @@
         <v>7</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>11</v>
@@ -4325,16 +4322,16 @@
         <v>7</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F157" s="8" t="s">
         <v>11</v>
@@ -4351,13 +4348,13 @@
         <v>68</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>11</v>
@@ -4374,13 +4371,13 @@
         <v>68</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F159" s="8" t="s">
         <v>11</v>
@@ -4397,13 +4394,13 @@
         <v>68</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>11</v>
@@ -4420,13 +4417,13 @@
         <v>68</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F161" s="8" t="s">
         <v>11</v>
@@ -4443,13 +4440,13 @@
         <v>68</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>11</v>
@@ -4466,13 +4463,13 @@
         <v>68</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F163" s="8" t="s">
         <v>11</v>
@@ -4486,16 +4483,16 @@
         <v>7</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>11</v>
@@ -4509,16 +4506,16 @@
         <v>7</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F165" s="8" t="s">
         <v>11</v>
@@ -4532,16 +4529,16 @@
         <v>7</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F166" s="4" t="s">
         <v>11</v>
@@ -4555,16 +4552,16 @@
         <v>7</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F167" s="8" t="s">
         <v>11</v>
@@ -4578,16 +4575,16 @@
         <v>7</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F168" s="4" t="s">
         <v>11</v>
@@ -4601,16 +4598,16 @@
         <v>7</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F169" s="8" t="s">
         <v>11</v>
@@ -4624,16 +4621,16 @@
         <v>7</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>11</v>
@@ -4647,16 +4644,16 @@
         <v>7</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F171" s="8" t="s">
         <v>11</v>
@@ -4670,16 +4667,16 @@
         <v>7</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F172" s="4" t="s">
         <v>11</v>
@@ -4693,16 +4690,16 @@
         <v>7</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F173" s="8" t="s">
         <v>11</v>
@@ -4716,16 +4713,16 @@
         <v>7</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F174" s="4" t="s">
         <v>11</v>
@@ -4739,16 +4736,16 @@
         <v>7</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F175" s="8" t="s">
         <v>11</v>
@@ -4762,16 +4759,16 @@
         <v>7</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F176" s="4" t="s">
         <v>11</v>
@@ -4785,16 +4782,16 @@
         <v>7</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F177" s="8" t="s">
         <v>11</v>
@@ -4808,16 +4805,16 @@
         <v>7</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F178" s="4" t="s">
         <v>11</v>
@@ -4831,16 +4828,16 @@
         <v>7</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F179" s="8" t="s">
         <v>11</v>
@@ -4854,16 +4851,16 @@
         <v>7</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F180" s="4" t="s">
         <v>11</v>
@@ -4877,16 +4874,16 @@
         <v>7</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F181" s="8" t="s">
         <v>11</v>
@@ -4900,16 +4897,16 @@
         <v>7</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>11</v>
@@ -4923,16 +4920,16 @@
         <v>7</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F183" s="8" t="s">
         <v>11</v>
@@ -4946,16 +4943,16 @@
         <v>7</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F184" s="4" t="s">
         <v>11</v>
@@ -4969,16 +4966,16 @@
         <v>7</v>
       </c>
       <c r="B185" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E185" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D185" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E185" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="F185" s="8" t="s">
         <v>11</v>
@@ -4992,16 +4989,16 @@
         <v>7</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F186" s="4" t="s">
         <v>11</v>
@@ -5015,16 +5012,16 @@
         <v>7</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="F187" s="8" t="s">
         <v>11</v>
@@ -5038,16 +5035,16 @@
         <v>7</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F188" s="4" t="s">
         <v>11</v>
@@ -5061,16 +5058,16 @@
         <v>7</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="F189" s="8" t="s">
         <v>11</v>
@@ -5084,16 +5081,16 @@
         <v>7</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="F190" s="4" t="s">
         <v>11</v>
@@ -5107,16 +5104,16 @@
         <v>7</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F191" s="8" t="s">
         <v>11</v>
@@ -5130,16 +5127,16 @@
         <v>7</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F192" s="4" t="s">
         <v>11</v>
@@ -5153,16 +5150,16 @@
         <v>7</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F193" s="8" t="s">
         <v>11</v>
@@ -5176,16 +5173,16 @@
         <v>7</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F194" s="4" t="s">
         <v>11</v>
@@ -5199,16 +5196,16 @@
         <v>7</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F195" s="8" t="s">
         <v>11</v>
@@ -5222,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F196" s="4" t="s">
         <v>11</v>
@@ -5245,16 +5242,16 @@
         <v>7</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F197" s="8" t="s">
         <v>11</v>
@@ -5268,16 +5265,16 @@
         <v>7</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F198" s="4" t="s">
         <v>11</v>
@@ -5291,16 +5288,16 @@
         <v>7</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F199" s="8" t="s">
         <v>11</v>
@@ -5314,16 +5311,16 @@
         <v>7</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F200" s="4" t="s">
         <v>11</v>
@@ -5337,16 +5334,16 @@
         <v>7</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F201" s="8" t="s">
         <v>11</v>
@@ -5360,16 +5357,16 @@
         <v>7</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F202" s="4" t="s">
         <v>11</v>
@@ -5383,16 +5380,16 @@
         <v>7</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F203" s="8" t="s">
         <v>11</v>
@@ -5406,16 +5403,16 @@
         <v>7</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F204" s="4" t="s">
         <v>11</v>
@@ -5429,16 +5426,16 @@
         <v>7</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F205" s="8" t="s">
         <v>11</v>
@@ -5452,16 +5449,16 @@
         <v>7</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F206" s="4" t="s">
         <v>11</v>
@@ -5475,16 +5472,16 @@
         <v>7</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F207" s="8" t="s">
         <v>11</v>
@@ -5498,16 +5495,16 @@
         <v>7</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F208" s="4" t="s">
         <v>11</v>
@@ -5521,16 +5518,16 @@
         <v>7</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F209" s="8" t="s">
         <v>11</v>
@@ -5544,16 +5541,16 @@
         <v>7</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F210" s="4" t="s">
         <v>11</v>
@@ -5567,16 +5564,16 @@
         <v>7</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F211" s="8" t="s">
         <v>11</v>
@@ -5593,13 +5590,13 @@
         <v>97</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="F212" s="4" t="s">
         <v>11</v>
@@ -5616,13 +5613,13 @@
         <v>97</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F213" s="8" t="s">
         <v>11</v>
@@ -5639,13 +5636,13 @@
         <v>97</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="F214" s="4" t="s">
         <v>11</v>
@@ -5662,13 +5659,13 @@
         <v>97</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F215" s="8" t="s">
         <v>11</v>
@@ -5685,13 +5682,13 @@
         <v>97</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="F216" s="4" t="s">
         <v>11</v>
@@ -5708,13 +5705,13 @@
         <v>97</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="F217" s="8" t="s">
         <v>11</v>
@@ -5728,16 +5725,16 @@
         <v>7</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F218" s="4" t="s">
         <v>11</v>
@@ -5751,16 +5748,16 @@
         <v>7</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F219" s="8" t="s">
         <v>11</v>
@@ -5774,16 +5771,16 @@
         <v>7</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F220" s="4" t="s">
         <v>11</v>
@@ -5797,16 +5794,16 @@
         <v>7</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F221" s="8" t="s">
         <v>11</v>
@@ -5820,16 +5817,16 @@
         <v>7</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F222" s="4" t="s">
         <v>11</v>
@@ -5843,16 +5840,16 @@
         <v>7</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F223" s="8" t="s">
         <v>11</v>
@@ -5866,16 +5863,16 @@
         <v>7</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F224" s="4" t="s">
         <v>11</v>
@@ -5889,16 +5886,16 @@
         <v>7</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E225" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F225" s="8" t="s">
         <v>11</v>
@@ -5912,16 +5909,16 @@
         <v>7</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F226" s="4" t="s">
         <v>11</v>
@@ -5935,16 +5932,16 @@
         <v>7</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F227" s="8" t="s">
         <v>11</v>
@@ -5958,16 +5955,16 @@
         <v>7</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F228" s="4" t="s">
         <v>11</v>
@@ -5981,16 +5978,16 @@
         <v>7</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F229" s="8" t="s">
         <v>11</v>
@@ -6004,16 +6001,16 @@
         <v>7</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F230" s="4" t="s">
         <v>11</v>
@@ -6027,16 +6024,16 @@
         <v>7</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E231" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F231" s="8" t="s">
         <v>11</v>
@@ -6050,16 +6047,16 @@
         <v>7</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F232" s="4" t="s">
         <v>11</v>
@@ -6073,16 +6070,16 @@
         <v>7</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E233" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F233" s="8" t="s">
         <v>11</v>
@@ -6096,16 +6093,16 @@
         <v>7</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F234" s="4" t="s">
         <v>11</v>
@@ -6119,16 +6116,16 @@
         <v>7</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E235" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F235" s="8" t="s">
         <v>11</v>
@@ -6142,16 +6139,16 @@
         <v>7</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F236" s="4" t="s">
         <v>11</v>
@@ -6165,16 +6162,16 @@
         <v>7</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E237" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F237" s="8" t="s">
         <v>11</v>
@@ -6188,16 +6185,16 @@
         <v>7</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F238" s="4" t="s">
         <v>11</v>
@@ -6214,13 +6211,13 @@
         <v>98</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="E239" s="7" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="F239" s="8" t="s">
         <v>11</v>
@@ -6237,13 +6234,13 @@
         <v>98</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F240" s="4" t="s">
         <v>11</v>
@@ -6260,13 +6257,13 @@
         <v>98</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="E241" s="7" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="F241" s="8" t="s">
         <v>11</v>
@@ -6283,13 +6280,13 @@
         <v>98</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F242" s="4" t="s">
         <v>11</v>
@@ -6306,13 +6303,13 @@
         <v>98</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E243" s="7" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="F243" s="8" t="s">
         <v>11</v>
@@ -6329,13 +6326,13 @@
         <v>98</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="F244" s="4" t="s">
         <v>11</v>
@@ -6349,16 +6346,16 @@
         <v>7</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E245" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F245" s="8" t="s">
         <v>11</v>
@@ -6372,16 +6369,16 @@
         <v>7</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F246" s="4" t="s">
         <v>11</v>
@@ -6395,16 +6392,16 @@
         <v>7</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E247" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F247" s="8" t="s">
         <v>11</v>
@@ -6418,16 +6415,16 @@
         <v>7</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F248" s="4" t="s">
         <v>11</v>
@@ -6441,16 +6438,16 @@
         <v>7</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E249" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F249" s="8" t="s">
         <v>11</v>
@@ -6464,16 +6461,16 @@
         <v>7</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F250" s="4" t="s">
         <v>11</v>
@@ -6487,16 +6484,16 @@
         <v>7</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E251" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F251" s="8" t="s">
         <v>11</v>
@@ -6510,16 +6507,16 @@
         <v>7</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F252" s="4" t="s">
         <v>11</v>
@@ -6533,16 +6530,16 @@
         <v>7</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E253" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F253" s="8" t="s">
         <v>11</v>
@@ -6556,16 +6553,16 @@
         <v>7</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F254" s="4" t="s">
         <v>11</v>
@@ -6579,16 +6576,16 @@
         <v>7</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E255" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F255" s="8" t="s">
         <v>11</v>
@@ -6602,16 +6599,16 @@
         <v>7</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F256" s="4" t="s">
         <v>11</v>
@@ -6625,16 +6622,16 @@
         <v>7</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E257" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F257" s="8" t="s">
         <v>11</v>
@@ -6648,16 +6645,16 @@
         <v>7</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F258" s="4" t="s">
         <v>11</v>
@@ -6671,16 +6668,16 @@
         <v>7</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E259" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F259" s="8" t="s">
         <v>11</v>
@@ -6694,16 +6691,16 @@
         <v>7</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F260" s="4" t="s">
         <v>11</v>
@@ -6717,16 +6714,16 @@
         <v>7</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E261" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F261" s="8" t="s">
         <v>11</v>
@@ -6740,16 +6737,16 @@
         <v>7</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F262" s="4" t="s">
         <v>11</v>
@@ -6763,16 +6760,16 @@
         <v>7</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E263" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F263" s="8" t="s">
         <v>11</v>
@@ -6786,16 +6783,16 @@
         <v>7</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F264" s="4" t="s">
         <v>11</v>
@@ -6809,16 +6806,16 @@
         <v>7</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E265" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F265" s="8" t="s">
         <v>11</v>
@@ -6835,13 +6832,13 @@
         <v>99</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="F266" s="4" t="s">
         <v>11</v>
@@ -6858,13 +6855,13 @@
         <v>99</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="E267" s="7" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F267" s="8" t="s">
         <v>11</v>
@@ -6881,13 +6878,13 @@
         <v>99</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="F268" s="4" t="s">
         <v>11</v>
@@ -6904,13 +6901,13 @@
         <v>99</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E269" s="7" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F269" s="8" t="s">
         <v>11</v>
@@ -6927,13 +6924,13 @@
         <v>99</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="F270" s="4" t="s">
         <v>11</v>
@@ -6950,13 +6947,13 @@
         <v>99</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E271" s="7" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="F271" s="8" t="s">
         <v>11</v>
@@ -6970,16 +6967,16 @@
         <v>7</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F272" s="4" t="s">
         <v>11</v>
@@ -6993,16 +6990,16 @@
         <v>7</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E273" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F273" s="8" t="s">
         <v>11</v>
@@ -7016,16 +7013,16 @@
         <v>7</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F274" s="4" t="s">
         <v>11</v>
@@ -7039,16 +7036,16 @@
         <v>7</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E275" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F275" s="8" t="s">
         <v>11</v>
@@ -7062,16 +7059,16 @@
         <v>7</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F276" s="4" t="s">
         <v>11</v>
@@ -7085,16 +7082,16 @@
         <v>7</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E277" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F277" s="8" t="s">
         <v>11</v>
@@ -7108,16 +7105,16 @@
         <v>7</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F278" s="4" t="s">
         <v>11</v>
@@ -7131,16 +7128,16 @@
         <v>7</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E279" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F279" s="8" t="s">
         <v>11</v>
@@ -7154,16 +7151,16 @@
         <v>7</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F280" s="4" t="s">
         <v>11</v>
@@ -7177,16 +7174,16 @@
         <v>7</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E281" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F281" s="8" t="s">
         <v>11</v>
@@ -7200,16 +7197,16 @@
         <v>7</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F282" s="4" t="s">
         <v>11</v>
@@ -7223,16 +7220,16 @@
         <v>7</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E283" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F283" s="8" t="s">
         <v>11</v>
@@ -7246,16 +7243,16 @@
         <v>7</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F284" s="4" t="s">
         <v>11</v>
@@ -7269,16 +7266,16 @@
         <v>7</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D285" s="6" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E285" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F285" s="8" t="s">
         <v>11</v>
@@ -7292,16 +7289,16 @@
         <v>7</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F286" s="4" t="s">
         <v>11</v>
@@ -7315,16 +7312,16 @@
         <v>7</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E287" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F287" s="8" t="s">
         <v>11</v>
@@ -7338,16 +7335,16 @@
         <v>7</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F288" s="4" t="s">
         <v>11</v>
@@ -7361,16 +7358,16 @@
         <v>7</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E289" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F289" s="8" t="s">
         <v>11</v>
@@ -7384,16 +7381,16 @@
         <v>7</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F290" s="4" t="s">
         <v>11</v>
@@ -7407,16 +7404,16 @@
         <v>7</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E291" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F291" s="8" t="s">
         <v>11</v>
@@ -7430,16 +7427,16 @@
         <v>7</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F292" s="4" t="s">
         <v>11</v>
@@ -7456,13 +7453,13 @@
         <v>100</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="E293" s="7" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="F293" s="8" t="s">
         <v>11</v>
@@ -7479,13 +7476,13 @@
         <v>100</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F294" s="4" t="s">
         <v>11</v>
@@ -7502,13 +7499,13 @@
         <v>100</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="E295" s="7" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="F295" s="8" t="s">
         <v>11</v>
@@ -7525,13 +7522,13 @@
         <v>100</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F296" s="4" t="s">
         <v>11</v>
@@ -7548,13 +7545,13 @@
         <v>100</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E297" s="7" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="F297" s="8" t="s">
         <v>11</v>
@@ -7571,13 +7568,13 @@
         <v>100</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="F298" s="4" t="s">
         <v>11</v>
@@ -7591,16 +7588,16 @@
         <v>7</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E299" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F299" s="8" t="s">
         <v>11</v>
@@ -7614,16 +7611,16 @@
         <v>7</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F300" s="4" t="s">
         <v>11</v>
@@ -7637,16 +7634,16 @@
         <v>7</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E301" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F301" s="8" t="s">
         <v>11</v>
@@ -7660,16 +7657,16 @@
         <v>7</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F302" s="4" t="s">
         <v>11</v>
@@ -7683,16 +7680,16 @@
         <v>7</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E303" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F303" s="8" t="s">
         <v>11</v>
@@ -7706,16 +7703,16 @@
         <v>7</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F304" s="4" t="s">
         <v>11</v>
@@ -7729,16 +7726,16 @@
         <v>7</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E305" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F305" s="8" t="s">
         <v>11</v>
@@ -7752,16 +7749,16 @@
         <v>7</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F306" s="4" t="s">
         <v>11</v>
@@ -7775,16 +7772,16 @@
         <v>7</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E307" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F307" s="8" t="s">
         <v>11</v>
@@ -7798,16 +7795,16 @@
         <v>7</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F308" s="4" t="s">
         <v>11</v>
@@ -7821,16 +7818,16 @@
         <v>7</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E309" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F309" s="8" t="s">
         <v>11</v>
@@ -7844,16 +7841,16 @@
         <v>7</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F310" s="4" t="s">
         <v>11</v>
@@ -7867,16 +7864,16 @@
         <v>7</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E311" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F311" s="8" t="s">
         <v>11</v>
@@ -7890,16 +7887,16 @@
         <v>7</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F312" s="4" t="s">
         <v>11</v>
@@ -7913,16 +7910,16 @@
         <v>7</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E313" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F313" s="8" t="s">
         <v>11</v>
@@ -7936,16 +7933,16 @@
         <v>7</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F314" s="4" t="s">
         <v>11</v>
@@ -7959,16 +7956,16 @@
         <v>7</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E315" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F315" s="8" t="s">
         <v>11</v>
@@ -7982,16 +7979,16 @@
         <v>7</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F316" s="4" t="s">
         <v>11</v>
@@ -8005,16 +8002,16 @@
         <v>7</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E317" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F317" s="8" t="s">
         <v>11</v>
@@ -8028,16 +8025,16 @@
         <v>7</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F318" s="4" t="s">
         <v>11</v>
@@ -8051,159 +8048,21 @@
         <v>7</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E319" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F319" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G319" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A320" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D320" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E320" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F320" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G320" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A321" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B321" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C321" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D321" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E321" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F321" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G321" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A322" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D322" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E322" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F322" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G322" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A323" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B323" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D323" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E323" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F323" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G323" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A324" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D324" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E324" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F324" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G324" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A325" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B325" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D325" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E325" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F325" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G325" s="9">
         <v>180</v>
       </c>
     </row>
